--- a/file/dongtan.xlsx
+++ b/file/dongtan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBC7D87-ACB5-4D2B-8760-70F12408FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280EB8D-59FB-4B1A-8C47-F3C2C2E5D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3161A692-2485-4F07-8A30-EA7037E8F555}"/>
   </bookViews>
@@ -2239,7 +2239,7 @@
   <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>104291</v>
+        <v>112841</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>110</v>

--- a/file/dongtan.xlsx
+++ b/file/dongtan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8280EB8D-59FB-4B1A-8C47-F3C2C2E5D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C796F4-A240-42C5-8DDA-7F1AE2569029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3161A692-2485-4F07-8A30-EA7037E8F555}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>동탄숲속마을자연앤경남아너스빌(1115)</t>
   </si>
@@ -328,28 +328,6 @@
   </si>
   <si>
     <t>이지더원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동탄숲속마을자연앤경남아너스빌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1124)</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2236,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9C8303-8375-4862-B050-AD7D10E35159}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2261,7 +2239,7 @@
         <v>112841</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2405,7 +2383,7 @@
         <v>22290</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -2521,85 +2499,88 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="6" t="s">
+      <c r="A35">
+        <v>25959</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>25959</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>27210</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>26383</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>27210</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>26383</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>23778</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>23778</v>
-      </c>
-      <c r="B39" s="5" t="s">
+        <v>23768</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>23768</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>23766</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>23766</v>
+        <v>112392</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>112392</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>114567</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>11194</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>114567</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>11194</v>
-      </c>
-      <c r="B44" s="5" t="s">
+        <v>26218</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>26218</v>
+        <v>26219</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>43</v>
@@ -2607,39 +2588,39 @@
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>26219</v>
-      </c>
-      <c r="B46" s="3" t="s">
+        <v>122159</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>122159</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>108370</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>108370</v>
-      </c>
-      <c r="B48" s="6" t="s">
+        <v>108481</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>108481</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>165262</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>165262</v>
+        <v>109932</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -2647,31 +2628,31 @@
     </row>
     <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>109932</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>111351</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>111351</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>111352</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>111352</v>
-      </c>
-      <c r="B53" s="4" t="s">
+        <v>128133</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>128133</v>
+        <v>116776</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>52</v>
@@ -2679,175 +2660,175 @@
     </row>
     <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>116776</v>
-      </c>
-      <c r="B55" s="6" t="s">
+        <v>119951</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>119951</v>
-      </c>
-      <c r="B56" s="4" t="s">
+        <v>109931</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>109931</v>
-      </c>
-      <c r="B57" s="6" t="s">
+        <v>14371</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>14371</v>
-      </c>
-      <c r="B58" s="3" t="s">
+        <v>109947</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>109947</v>
-      </c>
-      <c r="B59" s="5" t="s">
+        <v>115424</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>115424</v>
-      </c>
-      <c r="B60" s="4" t="s">
+        <v>121615</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>121615</v>
-      </c>
-      <c r="B61" s="3" t="s">
+        <v>119652</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>119652</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>105405</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>105405</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>106558</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>106558</v>
-      </c>
-      <c r="B64" s="3" t="s">
+        <v>111024</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>111024</v>
-      </c>
-      <c r="B65" s="6" t="s">
+        <v>106031</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>106031</v>
-      </c>
-      <c r="B66" s="3" t="s">
+        <v>106155</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>106155</v>
-      </c>
-      <c r="B67" s="5" t="s">
+        <v>107542</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>107542</v>
-      </c>
-      <c r="B68" s="3" t="s">
+        <v>106690</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>106690</v>
-      </c>
-      <c r="B69" s="4" t="s">
+        <v>105407</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>105407</v>
-      </c>
-      <c r="B70" s="5" t="s">
+        <v>109208</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>109208</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>105415</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>105415</v>
-      </c>
-      <c r="B72" s="5" t="s">
+        <v>105416</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>105416</v>
-      </c>
-      <c r="B73" s="4" t="s">
+        <v>108408</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>108408</v>
-      </c>
-      <c r="B74" s="6" t="s">
+        <v>106549</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>106549</v>
-      </c>
-      <c r="B75" s="3" t="s">
+        <v>106551</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>106551</v>
+        <v>110838</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>74</v>
@@ -2855,87 +2836,87 @@
     </row>
     <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>110838</v>
-      </c>
-      <c r="B77" s="5" t="s">
+        <v>106553</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>106553</v>
-      </c>
-      <c r="B78" s="3" t="s">
+        <v>106552</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>106552</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>111626</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>111626</v>
-      </c>
-      <c r="B80" s="2" t="s">
+        <v>113408</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>113408</v>
-      </c>
-      <c r="B81" s="6" t="s">
+        <v>112840</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>112840</v>
-      </c>
-      <c r="B82" s="3" t="s">
+        <v>115506</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>115506</v>
-      </c>
-      <c r="B83" s="4" t="s">
+        <v>115463</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>115463</v>
-      </c>
-      <c r="B84" s="3" t="s">
+        <v>115473</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>115473</v>
-      </c>
-      <c r="B85" s="5" t="s">
+        <v>111113</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>111113</v>
-      </c>
-      <c r="B86" s="4" t="s">
+        <v>168057</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>168057</v>
+        <v>109804</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>85</v>
@@ -2943,15 +2924,15 @@
     </row>
     <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>109804</v>
-      </c>
-      <c r="B88" s="5" t="s">
+        <v>152683</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>152683</v>
+        <v>115544</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>87</v>
@@ -2959,23 +2940,23 @@
     </row>
     <row r="90" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>115544</v>
-      </c>
-      <c r="B90" s="3" t="s">
+        <v>168399</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>168399</v>
-      </c>
-      <c r="B91" s="5" t="s">
+        <v>114414</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>114414</v>
+        <v>114415</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>90</v>
@@ -2983,7 +2964,7 @@
     </row>
     <row r="93" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>114415</v>
+        <v>114379</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>91</v>
@@ -2991,7 +2972,7 @@
     </row>
     <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>114379</v>
+        <v>114416</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>92</v>
@@ -2999,7 +2980,7 @@
     </row>
     <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>114416</v>
+        <v>114417</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>93</v>
@@ -3007,7 +2988,7 @@
     </row>
     <row r="96" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>114417</v>
+        <v>115471</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>94</v>
@@ -3015,15 +2996,15 @@
     </row>
     <row r="97" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>115471</v>
-      </c>
-      <c r="B97" s="4" t="s">
+        <v>115536</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>115536</v>
+        <v>160319</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>96</v>
@@ -3031,7 +3012,7 @@
     </row>
     <row r="99" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>160319</v>
+        <v>109078</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>97</v>
@@ -3039,23 +3020,23 @@
     </row>
     <row r="100" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>109078</v>
-      </c>
-      <c r="B100" s="6" t="s">
+        <v>127086</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>127086</v>
-      </c>
-      <c r="B101" s="2" t="s">
+        <v>127192</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>127192</v>
+        <v>119469</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>100</v>
@@ -3063,15 +3044,15 @@
     </row>
     <row r="103" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>119469</v>
-      </c>
-      <c r="B103" s="3" t="s">
+        <v>114664</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>114664</v>
+        <v>112401</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>102</v>
@@ -3079,31 +3060,31 @@
     </row>
     <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>112401</v>
-      </c>
-      <c r="B105" s="6" t="s">
+        <v>112414</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>112414</v>
-      </c>
-      <c r="B106" s="3" t="s">
+        <v>117065</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>117065</v>
-      </c>
-      <c r="B107" s="5" t="s">
+        <v>118154</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>118154</v>
+        <v>115948</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>106</v>
@@ -3111,18 +3092,10 @@
     </row>
     <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>115948</v>
-      </c>
-      <c r="B109" s="6" t="s">
+        <v>115950</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110">
-        <v>115950</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
